--- a/SeleniumJavaFramework/Excel/TestData.xlsx
+++ b/SeleniumJavaFramework/Excel/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trmro\eclipse-workspace\SeleniumJavaFramework\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trmro\git\TonyTestNG\SeleniumJavaFramework\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA39FBA-7095-4506-81D1-FA8D77953A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F2DBAC-FF12-4895-AC35-2DD3B2FE28C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Username</t>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>admin12345</t>
   </si>
   <si>
     <t>Admin1</t>
@@ -369,7 +366,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,42 +384,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2">
+        <v>12345</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>12345</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>12345</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>12345</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>12345</v>
       </c>
     </row>
   </sheetData>
